--- a/template/country_admission_templates.xlsx
+++ b/template/country_admission_templates.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neddy3-my.sharepoint.com/personal/55529_office365online_co/Documents/Work/iseek/1-VPO/src/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofiy\OneDrive - Questindustries\Work\iseek\1-VPO\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{0CF064BD-7054-5846-8050-EF33C0A77C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45D36AC9-5729-4E6D-92E5-F835981BFC15}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C61B58-A292-4582-AED2-1659B8FE6A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21450" yWindow="2895" windowWidth="25155" windowHeight="15885" activeTab="1" xr2:uid="{81572743-EA96-914B-9821-5CA6E6D6BF11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{81572743-EA96-914B-9821-5CA6E6D6BF11}"/>
   </bookViews>
   <sheets>
     <sheet name="шаблон" sheetId="1" r:id="rId1"/>
-    <sheet name="оч_оч-зч_зч" sheetId="5" r:id="rId2"/>
+    <sheet name="Москва_страны_языки" sheetId="5" r:id="rId2"/>
     <sheet name="Кодификатор стран" sheetId="7" r:id="rId3"/>
     <sheet name="ключ по языкам" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">'ключ по языкам'!$A$1:$C$182</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'оч_оч-зч_зч'!$C$1:$C$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Москва_страны_языки!$C$1:$C$160</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1555,13 +1555,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="60.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>49</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>62</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>64</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>65</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>67</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>68</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>69</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>70</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>72</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>73</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>74</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>75</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>76</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>77</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>78</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>79</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>80</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>81</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>82</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>83</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>84</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>85</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>86</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>87</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>88</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>89</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>90</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>91</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>92</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>93</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>94</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>95</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>97</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>98</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>99</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>100</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>101</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>102</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>103</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>104</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>105</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>106</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>107</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>108</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>109</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>110</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>111</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>112</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>113</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>114</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>115</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>116</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>117</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>118</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>119</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>120</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>121</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>122</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>123</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>124</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>125</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>126</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>127</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>128</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>129</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>130</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>131</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>132</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>133</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>134</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>135</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>136</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>137</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>138</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>139</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>140</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>141</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>142</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>143</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>144</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>145</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>146</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>147</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>148</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>149</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>150</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>151</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>152</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>153</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>154</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>155</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>156</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>157</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>158</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>159</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>160</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>161</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>162</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>163</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>164</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>165</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>166</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>167</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>168</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>169</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>170</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>171</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>172</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>173</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>174</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>175</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>176</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>177</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>178</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>179</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>180</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>181</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>182</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>183</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>184</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>185</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>186</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>187</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>188</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>189</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>190</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>191</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>192</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>193</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>194</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>195</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>196</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>197</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>198</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>199</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>200</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>201</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>202</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>203</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>204</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>205</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>206</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>207</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>208</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>209</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>210</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>211</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>212</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>213</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>214</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>215</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>216</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>217</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>218</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>219</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>220</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>221</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>222</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>223</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>224</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>225</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>226</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>227</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>228</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>229</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>230</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>231</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>232</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>233</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>234</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>235</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>236</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>237</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>238</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>239</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>240</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>241</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>242</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>243</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>244</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>245</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>246</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>247</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>248</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>249</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>250</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>251</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>252</v>
       </c>
@@ -3838,17 +3838,17 @@
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>пушту, дари</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>албанский</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>арабский, берберский (тамазигт)</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>португальский</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>азербайджанский</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>нет официального языка (английский де-факто)</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>немецкий</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>бенгальский, английский</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>армянский</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>нидерландский, французский, немецкий</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>испанский, кечуа, аймара, гуарани</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>боснийский, сербский, хорватский</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>английский, тсвана</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>португальский</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>малайский, английский</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>болгарский</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>бирманский</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>рунди, французский, английский</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>белорусский, русский</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>кхмерский</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>английский, французский</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>английский, французский</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>португальский</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>сингальский, тамильский</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>арабский, французский</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>китайский (мандарин)</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>китайский (мандарин)</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>арабский, коморский, французский</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>55</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>хорватский</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>58</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>греческий, турецкий</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>59</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>чешский</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>60</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>61</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>датский</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>64</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>испанский, французский</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>67</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>амхарский</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>эстонский</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>финский, шведский</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>80</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>арабский, французский</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>81</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>82</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>грузинский</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>83</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>84</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>85</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>немецкий</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>86</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>88</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>английский, кирибати</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>89</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>греческий</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>91</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>94</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>95</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>97</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>101</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>китайский, английский</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>102</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>венгерский</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>103</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>исландский</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>104</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>хинди, английский</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>105</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>индонезийский</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>106</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>персидский (дари)</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>107</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>109</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>иврит</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>110</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>итальянский</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>111</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>113</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>японский</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>114</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>казахский, русский</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>115</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>116</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>суахили, английский</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>117</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>корейский</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>118</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>корейский</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>120</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>киргизский, русский</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>121</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>лаосский</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>122</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>123</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>сесото, английский</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>124</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>латышский</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>125</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>126</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>128</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>литовский</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>131</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>французский, малагасийский</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>132</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>английский, чичева</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>133</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>малайский, английский</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>135</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>136</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>мальтийский, английский</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>138</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>139</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>140</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>142</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>монгольский</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>143</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>румынский</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>144</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>черногорский</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>146</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>арабский, берберский (тамазигт)</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>147</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>португальский</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>148</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>149</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>151</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>непальский</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>152</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>нидерландский</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>160</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>161</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>162</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>165</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>норвежский, саамский</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>171</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>урду, английский</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>172</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>174</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>испанский, гуарани</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>175</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>испанский, кечуа, аймара</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>176</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>английский, филиппинский</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>178</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>польский</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>180</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>португальский</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>183</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>185</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>румынский</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>186</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>английский, французский, киньяруанда, суахили</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>189</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>196</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>португальский</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>197</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>198</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>199</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>сербский</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>201</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>203</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>словацкий</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>204</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>вьетнамский</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>205</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>словенский</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>206</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>сомалийский, арабский</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>207</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>английский, африкаанс, зулу, коса и др. (11 языков)</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>208</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>английский, шона, северный ндебеле</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>209</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>210</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>211</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>арабский, английский</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>213</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>нидерландский</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>216</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>шведский</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>218</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>219</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>таджикский</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>220</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>тайский</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>221</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>225</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>226</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>арабский, французский</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>227</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>турецкий</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>228</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>туркменский</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>231</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>английский, суахили</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>232</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>украинский</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>233</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>македонский, албанский</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>234</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>235</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>240</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>суахили, английский</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>241</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>243</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>французский</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>244</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>245</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>узбекский</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>246</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>испанский</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>249</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>арабский</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>250</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>английский</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>251</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>абхазский, русский</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>252</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>русский, осетинский</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>253</v>
       </c>
@@ -5940,13 +5940,13 @@
       <selection activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.625" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="54.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="C128" s="10"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>359</v>
       </c>
@@ -7984,14 +7984,14 @@
       <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="9" customWidth="1"/>
     <col min="3" max="3" width="49" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>45</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>106</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>245</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>114</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>219</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>228</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>204</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>120</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>143</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>232</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>142</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>162</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>218</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>251</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>104</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>234</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>171</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>227</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>16</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>86</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>250</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>43</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>252</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>82</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>5</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>122</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>109</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>124</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>107</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>52</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>53</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>199</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>37</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>208</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>105</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>118</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>249</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>133</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>42</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>95</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>135</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>64</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>57</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>186</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>111</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>32</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>60</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>97</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>115</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>146</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>225</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>49</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>197</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>175</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>201</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>211</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>66</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>22</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>180</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>131</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>246</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>34</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>226</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>240</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>84</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>121</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>220</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>116</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>85</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>147</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>128</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>89</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>207</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>198</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>36</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>231</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>241</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>221</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>140</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>151</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>149</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>110</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>76</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>253</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>23</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>113</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>138</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>41</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>203</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>3</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>24</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>83</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>81</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>117</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>65</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>210</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>206</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>233</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>144</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>174</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>15</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>196</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>11</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>46</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>26</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>50</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>160</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>44</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>235</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>58</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>126</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>209</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>38</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>139</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>172</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>13</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>102</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>178</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>243</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>61</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>39</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>55</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>161</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>185</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>176</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>63</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>183</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>94</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>129</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>80</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>148</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>68</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>74</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>12</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>132</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>205</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>96</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>59</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>213</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>152</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>217</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>244</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>216</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>165</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>56</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>101</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>125</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>215</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>194</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>202</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>19</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>31</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>100</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>91</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>123</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>134</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>136</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>200</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>112</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>108</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>179</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>7</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>14</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>158</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>62</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>103</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>88</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>159</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>189</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>224</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>20</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>119</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>242</v>
       </c>
